--- a/biology/Médecine/Génétique_moléculaire/Génétique_moléculaire.xlsx
+++ b/biology/Médecine/Génétique_moléculaire/Génétique_moléculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9tique_mol%C3%A9culaire</t>
+          <t>Génétique_moléculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La génétique moléculaire est une branche de la biologie et de la génétique, qui consiste en l'analyse de la structure et de la fonction des gènes, normaux ou mutants, au niveau moléculaire.
 La détermination de la séquence ADN du génome de nombreux organismes vivants (virus, bactéries, plantes, animaux) permet également des études comparatives au niveau moléculaire, par comparaison bio-informatique des séquences.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9n%C3%A9tique_mol%C3%A9culaire</t>
+          <t>Génétique_moléculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Législation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, les laboratoires de biologie médicale qui souhaitent réaliser des examens génétiques doivent avoir reçu un agrément[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les laboratoires de biologie médicale qui souhaitent réaliser des examens génétiques doivent avoir reçu un agrément.
 </t>
         </is>
       </c>
